--- a/Lab4/Lab4_Time.xlsx
+++ b/Lab4/Lab4_Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46ABA27-B460-456E-BF26-7B8638F25048}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D64F20C-7845-4CAD-BF96-64DF40D50004}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7B50ADE1-FF9E-4B81-9679-631F5D56132A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>Brute Force</t>
   </si>
@@ -136,1161 +136,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Brute Force vs Dynamic Programming in Seconds</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$1:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>Nodes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.9000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>93.870400000000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1197.8900000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4CDF-4C22-8B11-DC8DEE5D8ACC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$1:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>Nodes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$1:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.3698</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>181.434</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4CDF-4C22-8B11-DC8DEE5D8ACC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="386171088"/>
-        <c:axId val="386172728"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="386171088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="386172728"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="386172728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="386171088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Gentic Algorithm vs Tabu in Seconds</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (Logorithmic Display)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Genetic Algorithm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Sheet1!$E$2:$E$9,Sheet1!$E$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.29399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76800000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC42-494B-B76D-29398CDA46F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tabu </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent3">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Sheet1!$E$2:$E$9,Sheet1!$E$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.6000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.7350000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.83</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC42-494B-B76D-29398CDA46F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="543582952"/>
-        <c:axId val="543583280"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="543582952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543583280"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="543583280"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="543582952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Gentic Algorithm vs Tabu in Seconds</a:t>
+              <a:t>Genetic Algorithm vs Tabu in Seconds</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1363,7 +209,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:f>Sheet1!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1462,7 +308,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:f>Sheet1!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1759,6 +605,3404 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Genetic Algorithm in Seconds </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="101600">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D05B-44C5-97AE-3F00EFDD2CA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="357340312"/>
+        <c:axId val="357340640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="357340312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357340640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="357340640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357340312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tabu in Seconds </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tabu </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="101600">
+                <a:schemeClr val="bg2">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="bg2">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-090B-4A0F-AF1E-E22F0833C44F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="535877952"/>
+        <c:axId val="535878280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="535877952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535878280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="535878280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535877952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>All Algorithms in Seconds (Logorithmic Display)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11088648293963255"/>
+          <c:y val="0.21856386408286185"/>
+          <c:w val="0.8585579615048119"/>
+          <c:h val="0.5690511739010814"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$58:$A$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$58:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.870400000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1197.8900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7427-4871-B860-C0D277FA7519}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Programming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$58:$A$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$58:$C$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.3698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>181.434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7427-4871-B860-C0D277FA7519}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$58:$A$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$58:$D$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7427-4871-B860-C0D277FA7519}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tabu </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$58:$A$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$58:$E$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7427-4871-B860-C0D277FA7519}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="542937448"/>
+        <c:axId val="542943680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="542937448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542943680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="542943680"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542937448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Brute Force vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Dynamic Programming in Seconds</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.870400000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1197.8900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80F3-402C-9B61-2BB77B2C0B3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Programming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.3698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>181.434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-80F3-402C-9B61-2BB77B2C0B3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="353615448"/>
+        <c:axId val="353616432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="353615448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353616432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="353616432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353615448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Brute Force vs Dynamic Programming in Seconds (Logorithmic Display)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11644203849518808"/>
+          <c:y val="0.31506999125109364"/>
+          <c:w val="0.8585579615048119"/>
+          <c:h val="0.59233741615631375"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.870400000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1197.8900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B75D-41C8-879B-9A57EEB3307E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Programming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.3698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>181.434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B75D-41C8-879B-9A57EEB3307E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="546069952"/>
+        <c:axId val="546070280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="546069952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546070280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="546070280"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546069952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Genetic Algorithm vs Tabu in Seconds (Logorithmic Display)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-035E-4871-9E54-18F9C36B84FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tabu </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-035E-4871-9E54-18F9C36B84FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="486039264"/>
+        <c:axId val="486039592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="486039264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486039592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="486039592"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486039264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1879,6 +4123,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
@@ -2429,6 +4833,1010 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2977,7 +6385,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3526,82 +6934,1106 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2228850</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D3EED6-13E4-4E91-8338-FC874DFCFB5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05080F44-6122-46F7-82D7-483CC309D60D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -3632,7 +8064,223 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315D6675-3DD3-4FAD-ABBA-D482D46E07DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1090612</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58474983-51D0-42D3-A4C6-FA335B3C4D9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2224087</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1384933E-FC87-4915-89A0-FA66BD561D5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>509586</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2019299</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F611D8C8-3038-4F02-8BA2-7EB140F3B5F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1624012</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5313F8CB-F60A-4847-B8FB-EA1F19940DE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD97814D-912B-4BAB-BC5D-6C3EAE21907E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3938,10 +8586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B183C6-7BCD-44A8-B9FA-7FB794CF6686}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3951,9 +8599,10 @@
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="6" max="6" width="42.7109375" customWidth="1"/>
     <col min="7" max="7" width="36.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3972,8 +8621,20 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3992,8 +8653,20 @@
       <c r="G2">
         <v>1E-3</v>
       </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>1E-3</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4012,8 +8685,20 @@
       <c r="G3">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="J3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L3">
+        <v>200</v>
+      </c>
+      <c r="M3">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4032,8 +8717,20 @@
       <c r="G4">
         <v>9.6000000000000002E-2</v>
       </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L4">
+        <v>500</v>
+      </c>
+      <c r="M4">
+        <v>3.5999999999999997E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4052,8 +8749,20 @@
       <c r="G5">
         <v>0.96599999999999997</v>
       </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="J5">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+      <c r="M5">
+        <v>0.14399999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4072,8 +8781,20 @@
       <c r="G6">
         <v>3.7250000000000001</v>
       </c>
+      <c r="I6">
+        <v>1500</v>
+      </c>
+      <c r="J6">
+        <v>3.7250000000000001</v>
+      </c>
+      <c r="L6">
+        <v>1500</v>
+      </c>
+      <c r="M6">
+        <v>0.17899999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4092,8 +8813,20 @@
       <c r="G7">
         <v>5.7350000000000003</v>
       </c>
+      <c r="I7">
+        <v>2000</v>
+      </c>
+      <c r="J7">
+        <v>5.7350000000000003</v>
+      </c>
+      <c r="L7">
+        <v>2000</v>
+      </c>
+      <c r="M7">
+        <v>0.29399999999999998</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4112,8 +8845,20 @@
       <c r="G8">
         <v>20.83</v>
       </c>
+      <c r="I8">
+        <v>2500</v>
+      </c>
+      <c r="J8">
+        <v>20.83</v>
+      </c>
+      <c r="L8">
+        <v>2500</v>
+      </c>
+      <c r="M8">
+        <v>0.76800000000000002</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4124,7 +8869,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4135,7 +8880,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4146,7 +8891,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4157,7 +8902,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4177,7 +8922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4186,6 +8931,321 @@
       </c>
       <c r="C14">
         <v>181.434</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>1E-3</v>
+      </c>
+      <c r="C59">
+        <v>1E-3</v>
+      </c>
+      <c r="D59">
+        <v>1E-3</v>
+      </c>
+      <c r="E59">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>1E-3</v>
+      </c>
+      <c r="C60">
+        <v>1E-3</v>
+      </c>
+      <c r="D60">
+        <v>1E-3</v>
+      </c>
+      <c r="E60">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>1E-3</v>
+      </c>
+      <c r="C61">
+        <v>1E-3</v>
+      </c>
+      <c r="D61">
+        <v>1E-3</v>
+      </c>
+      <c r="E61">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>1E-3</v>
+      </c>
+      <c r="C62">
+        <v>1E-3</v>
+      </c>
+      <c r="D62">
+        <v>1E-3</v>
+      </c>
+      <c r="E62">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>2E-3</v>
+      </c>
+      <c r="C63">
+        <v>2E-3</v>
+      </c>
+      <c r="D63">
+        <v>1E-3</v>
+      </c>
+      <c r="E63">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C64">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D64">
+        <v>1E-3</v>
+      </c>
+      <c r="E64">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C65">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D65">
+        <v>1E-3</v>
+      </c>
+      <c r="E65">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C66">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D66">
+        <v>1E-3</v>
+      </c>
+      <c r="E66">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>10</v>
+      </c>
+      <c r="B67">
+        <v>0.6</v>
+      </c>
+      <c r="C67">
+        <v>0.1</v>
+      </c>
+      <c r="D67">
+        <v>1E-3</v>
+      </c>
+      <c r="E67">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>11</v>
+      </c>
+      <c r="B68">
+        <v>8.01</v>
+      </c>
+      <c r="C68">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D68">
+        <v>1E-3</v>
+      </c>
+      <c r="E68">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <v>93.870400000000004</v>
+      </c>
+      <c r="C69">
+        <v>13.3698</v>
+      </c>
+      <c r="D69">
+        <v>1E-3</v>
+      </c>
+      <c r="E69">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>1197.8900000000001</v>
+      </c>
+      <c r="C70">
+        <v>181.434</v>
+      </c>
+      <c r="D70">
+        <v>1E-3</v>
+      </c>
+      <c r="E70">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E71">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>200</v>
+      </c>
+      <c r="D72">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E72">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>500</v>
+      </c>
+      <c r="D73">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E73">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1000</v>
+      </c>
+      <c r="D74">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="E74">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1500</v>
+      </c>
+      <c r="D75">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E75">
+        <v>3.7250000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2000</v>
+      </c>
+      <c r="D76">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E76">
+        <v>5.7350000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2500</v>
+      </c>
+      <c r="D77">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E77">
+        <v>20.83</v>
       </c>
     </row>
   </sheetData>
